--- a/biology/Botanique/Amanita_pantherina/Amanita_pantherina.xlsx
+++ b/biology/Botanique/Amanita_pantherina/Amanita_pantherina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita pantherina
 Amanita pantherina, de son nom vernaculaire français, l'amanite panthère, est un champignon de l'hémisphère nord du genre Amanita dans la famille des Amanitaceae.
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Champignon dont le chapeau (jusqu'à 10-12 cm) est brun parsemé de petits flocons blanc pur, la marge du chapeau est striée, les lames sont blanches, libres et serrées.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amanite panthère pousse de la fin de l'été à la fin de l'automne, en forêt plutôt sous feuillus.
 </t>
@@ -577,7 +593,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon toxique pour l'homme, mais non mortel. Comme l'amanite tue-mouches, il provoque des troubles digestifs violents et des effets psychotropes dissociatifs. La concentration de toxines étant plus élevée chez l'amanite panthère, l'intoxication est donc plus grave. Elle provoque des convulsions chez les enfants.
 Pour plus de détails, voir Syndrome panthérinien.
@@ -609,7 +627,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On peut confondre l'amanite panthère avec deux amanites comestibles:
 L'amanite épaisse (Amanita spissa), dont les flocons sur le chapeau sont blanc pur pour l'amanite panthère alors qu'ils sont plutôt gris pour l'amanite épaisse, qui, de plus, n'a pas de bourrelet hélicoïdal à la base du pied.
@@ -641,7 +661,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'amanite tue-mouches, elle contient de l'acide iboténique et du muscimole dont les propriétés hallucinogènes l'ont désignée pour un usage chamanique dans un but d'ivresse extatique. Cependant du fait de sa toxicité supérieure à celle de l'amanite tue-mouches, son usage est plus délicat.
 </t>
